--- a/medicine/Soins infirmiers et profession infirmière/1825_en_santé_et_médecine/1825_en_santé_et_médecine.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/1825_en_santé_et_médecine/1825_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1825_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1825_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1825 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1825_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1825_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>27 juillet : la fièvre jaune emporte Antoine de Gramont d'Aster, commandant du 49e régiment de ligne à la Martinique[1] : « Il voulut donner l'exemple d'un courageux dévouement, et se renferma [au Fort-Royal] avec ses soldats pour les faire soigner sous ses yeux[2]. »</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>27 juillet : la fièvre jaune emporte Antoine de Gramont d'Aster, commandant du 49e régiment de ligne à la Martinique : « Il voulut donner l'exemple d'un courageux dévouement, et se renferma [au Fort-Royal] avec ses soldats pour les faire soigner sous ses yeux. »</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1825_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1825_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,7 +555,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jean-Baptiste Sarlandière : Mémoires sur l'électropuncture.</t>
         </is>
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1825_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1825_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,7 +587,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>23 mars : Theodor Bilharz (mort en 1862), parasitologue allemand.
 13 octobre : Alfred Le Roy de Méricourt (mort en 1901), médecin français, spécialiste de médecine navale.</t>
